--- a/MPM/需求文件/前后台提示文案.xlsx
+++ b/MPM/需求文件/前后台提示文案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="后台" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="790">
   <si>
     <t>系统代码</t>
   </si>
@@ -2307,6 +2307,162 @@
   </si>
   <si>
     <t>请输入描述</t>
+  </si>
+  <si>
+    <t>品牌基金及推广费预算执行进度分布</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1E1F24"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Distribution of budget execution progress of brand funds and promotion fees</t>
+    </r>
+  </si>
+  <si>
+    <t>品牌基金预算执行进度</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1E1F24"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Budget execution progress of brand fund</t>
+    </r>
+  </si>
+  <si>
+    <t>实业自有推广费预算执行进度</t>
+  </si>
+  <si>
+    <t>Budget execution progress of TCL Industry promotion expense</t>
+  </si>
+  <si>
+    <t>各营销组织预算执行进度</t>
+  </si>
+  <si>
+    <t>Budget execution progress of each marketing organizations</t>
+  </si>
+  <si>
+    <t>预算</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际已执行</t>
+    </r>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预算执行进度</t>
+    </r>
+  </si>
+  <si>
+    <t>Execution progress</t>
+  </si>
+  <si>
+    <t>项目状态分布</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1E1F24"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Project status distribution</t>
+    </r>
+  </si>
+  <si>
+    <t>各项目类型/业务动因- 项目分布、预算执行分布</t>
+  </si>
+  <si>
+    <t>Project types/business motivations - project distribution, budget execution distribution,</t>
+  </si>
+  <si>
+    <t>项目个数</t>
+  </si>
+  <si>
+    <t>The number of projects</t>
+  </si>
+  <si>
+    <t>预算占比</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1E1F24"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Budget allocation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>各品类、各区域、各渠道</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF121619"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF121619"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预算执行分布</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1E1F24"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Distribution of budget execution for various categories, regions, and channels</t>
+    </r>
+  </si>
+  <si>
+    <t>品类预算执行分布</t>
+  </si>
+  <si>
+    <t>Distribution of categories budget execution</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2475,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2334,6 +2490,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -2478,6 +2640,32 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1E1F24"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF121619"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF121619"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2800,16 +2988,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2818,119 +3003,122 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2942,6 +3130,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3470,8 +3661,8 @@
   <sheetPr/>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C66" sqref="$A1:$XFD1048576"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4139,13 +4330,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C299"/>
+  <dimension ref="A1:E320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="G302" sqref="G302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="44.625" customWidth="1"/>
     <col min="2" max="2" width="61.5" style="1" customWidth="1"/>
@@ -6544,6 +6735,197 @@
         <v>763</v>
       </c>
     </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+    </row>
+    <row r="301" ht="17.25" spans="1:5">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+    </row>
+    <row r="302" ht="17.25" spans="1:5">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="1"/>
+      <c r="B303" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="1"/>
+      <c r="B305" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="1"/>
+      <c r="B306" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+    </row>
+    <row r="308" ht="17.25" spans="1:5">
+      <c r="A308" s="1"/>
+      <c r="B308" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+    </row>
+    <row r="309" ht="27" spans="1:5">
+      <c r="A309" s="1"/>
+      <c r="B309" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="1"/>
+      <c r="B310" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+    </row>
+    <row r="311" ht="17.25" spans="1:5">
+      <c r="A311" s="1"/>
+      <c r="B311" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+    </row>
+    <row r="312" ht="17.25" spans="1:5">
+      <c r="A312" s="1"/>
+      <c r="B312" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="1"/>
+      <c r="B313" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="1"/>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="1"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
